--- a/EFLco2e.xlsx
+++ b/EFLco2e.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>ef_activeyear</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
